--- a/5/4/Moneda nacional 2004 a 2021 - Mensual.xlsx
+++ b/5/4/Moneda nacional 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Serie</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L210"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8783,6 +8786,44 @@
         <v>570</v>
       </c>
     </row>
+    <row r="211" spans="1:12">
+      <c r="A211" t="s">
+        <v>221</v>
+      </c>
+      <c r="B211">
+        <v>41289</v>
+      </c>
+      <c r="C211">
+        <v>20181</v>
+      </c>
+      <c r="D211">
+        <v>16683</v>
+      </c>
+      <c r="E211">
+        <v>16</v>
+      </c>
+      <c r="F211">
+        <v>457</v>
+      </c>
+      <c r="G211">
+        <v>2840</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>586</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>4</v>
+      </c>
+      <c r="L211">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/4/Moneda nacional 2004 a 2021 - Mensual.xlsx
+++ b/5/4/Moneda nacional 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>Serie</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8824,6 +8827,44 @@
         <v>522</v>
       </c>
     </row>
+    <row r="212" spans="1:12">
+      <c r="A212" t="s">
+        <v>222</v>
+      </c>
+      <c r="B212">
+        <v>49651</v>
+      </c>
+      <c r="C212">
+        <v>27596</v>
+      </c>
+      <c r="D212">
+        <v>17335</v>
+      </c>
+      <c r="E212">
+        <v>16</v>
+      </c>
+      <c r="F212">
+        <v>547</v>
+      </c>
+      <c r="G212">
+        <v>3400</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>598</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>4</v>
+      </c>
+      <c r="L212">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/4/Moneda nacional 2004 a 2021 - Mensual.xlsx
+++ b/5/4/Moneda nacional 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Serie</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L212"/>
+  <dimension ref="A1:L213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8865,6 +8868,44 @@
         <v>156</v>
       </c>
     </row>
+    <row r="213" spans="1:12">
+      <c r="A213" t="s">
+        <v>223</v>
+      </c>
+      <c r="B213">
+        <v>41795</v>
+      </c>
+      <c r="C213">
+        <v>19569</v>
+      </c>
+      <c r="D213">
+        <v>17192</v>
+      </c>
+      <c r="E213">
+        <v>15</v>
+      </c>
+      <c r="F213">
+        <v>581</v>
+      </c>
+      <c r="G213">
+        <v>3608</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>621</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>4</v>
+      </c>
+      <c r="L213">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
